--- a/0_1_Output_Data/5_ifoCAST_error_series_full_since_2022/ifoCAst_errors_full_latest_since_2022.xlsx
+++ b/0_1_Output_Data/5_ifoCAST_error_series_full_since_2022/ifoCAst_errors_full_latest_since_2022.xlsx
@@ -1517,7 +1517,7 @@
         <v>0.005609247143355867</v>
       </c>
       <c r="D81">
-        <v>0.7804486234241067</v>
+        <v>0.7136611031493167</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1528,7 +1528,7 @@
         <v>0.009391905143355861</v>
       </c>
       <c r="D82">
-        <v>0.7918746594241067</v>
+        <v>0.7250871391493168</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1539,7 +1539,7 @@
         <v>0.02585042314335589</v>
       </c>
       <c r="D83">
-        <v>0.7115302104241067</v>
+        <v>0.6447426901493167</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1550,7 +1550,7 @@
         <v>0.2471749241433559</v>
       </c>
       <c r="D84">
-        <v>0.7732527034241068</v>
+        <v>0.7064651831493167</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1561,7 +1561,7 @@
         <v>0.1536200731433559</v>
       </c>
       <c r="C85">
-        <v>0.5947585844241068</v>
+        <v>0.5279710641493167</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1572,7 +1572,7 @@
         <v>0.2427972171433558</v>
       </c>
       <c r="C86">
-        <v>-0.1471494035758933</v>
+        <v>-0.2139369238506833</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1580,7 +1580,7 @@
         <v>88</v>
       </c>
       <c r="C87">
-        <v>0.2315426864241067</v>
+        <v>0.1647551661493167</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1588,7 +1588,10 @@
         <v>89</v>
       </c>
       <c r="C88">
-        <v>0.5186180304241067</v>
+        <v>0.4518305101493167</v>
+      </c>
+      <c r="D88">
+        <v>0.791995474</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1596,7 +1599,10 @@
         <v>90</v>
       </c>
       <c r="C89">
-        <v>0.5462623554241067</v>
+        <v>0.4794748351493167</v>
+      </c>
+      <c r="D89">
+        <v>0.788120887</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1604,7 +1610,10 @@
         <v>91</v>
       </c>
       <c r="C90">
-        <v>0.3054124294241067</v>
+        <v>0.2386249091493167</v>
+      </c>
+      <c r="D90">
+        <v>0.597740902</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1612,7 +1621,10 @@
         <v>92</v>
       </c>
       <c r="C91">
-        <v>0.3912781354241067</v>
+        <v>0.3244906151493167</v>
+      </c>
+      <c r="D91">
+        <v>0.620527487</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1620,7 +1632,10 @@
         <v>93</v>
       </c>
       <c r="B92">
-        <v>0.0999529544241067</v>
+        <v>0.03316543414931669</v>
+      </c>
+      <c r="C92">
+        <v>0.241887844</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1628,27 +1643,42 @@
         <v>94</v>
       </c>
       <c r="B93">
-        <v>0.05603945542410671</v>
+        <v>-0.0107480648506833</v>
+      </c>
+      <c r="C93">
+        <v>0.331651578</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
         <v>95</v>
       </c>
+      <c r="C94">
+        <v>0.154182215</v>
+      </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="C95">
+        <v>0.166899468</v>
+      </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
+      <c r="C96">
+        <v>0.042359665</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
         <v>98</v>
+      </c>
+      <c r="C97">
+        <v>0.266698307</v>
       </c>
     </row>
   </sheetData>
